--- a/非生态需水_样本.xlsx
+++ b/非生态需水_样本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Early_rice</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Middle_rice</t>
+  </si>
+  <si>
+    <t>灌溉水利用系数</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -402,24 +405,35 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.49</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>8</v>
       </c>
     </row>
